--- a/Files/data/HAU_transects_2024.xlsx
+++ b/Files/data/HAU_transects_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\git\James_BirdnetProject\Files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01CFF7B-C6D7-497D-908E-800562A5C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49784BB0-87B1-46F8-9A4A-D5B6A73C01A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68E7C4F-23C4-4DA4-ABF1-5919F7A0AABA}"/>
   </bookViews>
   <sheets>
     <sheet name="transects" sheetId="1" r:id="rId1"/>
@@ -174,13 +174,13 @@
     <t>Goldcrest</t>
   </si>
   <si>
-    <t>Kestral</t>
-  </si>
-  <si>
     <t>House martin</t>
   </si>
   <si>
     <t>Pied wagtail</t>
+  </si>
+  <si>
+    <t>Kestrel</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B121">
         <v>8</v>
